--- a/doc/build/html/_static/pmhc-upload.xlsx
+++ b/doc/build/html/_static/pmhc-upload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="167">
   <si>
     <t>Version</t>
   </si>
@@ -73,6 +73,15 @@
     <t>CL02</t>
   </si>
   <si>
+    <t>Y6D675D85QB6EAPE48TZYDWWS2WZP1G7</t>
+  </si>
+  <si>
+    <t>CL03</t>
+  </si>
+  <si>
+    <t>TJMQXZYD7EDZP2VRW3E3S51ME2JR12ZH</t>
+  </si>
+  <si>
     <t>episode_key</t>
   </si>
   <si>
@@ -157,6 +166,15 @@
     <t>tag3</t>
   </si>
   <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
     <t>service_contact_key</t>
   </si>
   <si>
@@ -265,6 +283,9 @@
     <t>k10p_item14</t>
   </si>
   <si>
+    <t>k10p_score</t>
+  </si>
+  <si>
     <t>k10p_tags</t>
   </si>
   <si>
@@ -274,6 +295,9 @@
     <t>CO02</t>
   </si>
   <si>
+    <t>CO03</t>
+  </si>
+  <si>
     <t>k5_item1</t>
   </si>
   <si>
@@ -289,12 +313,21 @@
     <t>k5_item5</t>
   </si>
   <si>
+    <t>k5_score</t>
+  </si>
+  <si>
     <t>k5_tags</t>
   </si>
   <si>
+    <t>CO04</t>
+  </si>
+  <si>
     <t>tag1 tag2</t>
   </si>
   <si>
+    <t>CO05</t>
+  </si>
+  <si>
     <t>sdq_version</t>
   </si>
   <si>
@@ -424,10 +457,40 @@
     <t>sdq_item42</t>
   </si>
   <si>
+    <t>sdq_emotional_symptoms</t>
+  </si>
+  <si>
+    <t>sdq_conduct_problem</t>
+  </si>
+  <si>
+    <t>sdq_hyperactivity</t>
+  </si>
+  <si>
+    <t>sdq_peer_problem</t>
+  </si>
+  <si>
+    <t>sdq_prosocial</t>
+  </si>
+  <si>
+    <t>sdq_total</t>
+  </si>
+  <si>
+    <t>sdq_impact</t>
+  </si>
+  <si>
     <t>sdq_tags</t>
   </si>
   <si>
+    <t>CO06</t>
+  </si>
+  <si>
     <t>PC101</t>
+  </si>
+  <si>
+    <t>CO07</t>
+  </si>
+  <si>
+    <t>PC201</t>
   </si>
   <si>
     <t>practitioner_category</t>
@@ -789,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,7 +927,7 @@
         <v>1102</v>
       </c>
       <c r="I3">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -881,13 +944,13 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>28021983</v>
+        <v>15062006</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -902,7 +965,39 @@
         <v>1201</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>21081996</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1101</v>
+      </c>
+      <c r="I5">
+        <v>8911</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -931,85 +1026,85 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -1017,7 +1112,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1038,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1047,7 +1142,7 @@
         <v>1101</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1095,7 +1190,244 @@
         <v>1</v>
       </c>
       <c r="AB3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>16082016</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>14072016</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1101</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>107</v>
+      </c>
+      <c r="T4">
+        <v>903</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10062016</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>1102</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>502</v>
+      </c>
+      <c r="T5">
+        <v>999</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>23042016</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>1102</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>901</v>
+      </c>
+      <c r="T6">
+        <v>999</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>10</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1124,52 +1456,52 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1177,16 +1509,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>18062016</v>
+        <v>13022016</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1227,16 +1559,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>18062016</v>
+        <v>18032016</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1272,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1282,13 +1614,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1296,80 +1628,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="T2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>87</v>
+      </c>
+      <c r="U2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>18062016</v>
+        <v>12022016</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1416,19 +1751,22 @@
       <c r="S3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="T3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>18062016</v>
+        <v>25042016</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1475,8 +1813,76 @@
       <c r="S4">
         <v>3</v>
       </c>
-      <c r="T4" t="s">
-        <v>63</v>
+      <c r="T4">
+        <v>99</v>
+      </c>
+      <c r="U4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>18062016</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>25</v>
+      </c>
+      <c r="U5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1486,13 +1892,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1500,56 +1906,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>18062016</v>
+        <v>24042016</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1566,40 +1975,49 @@
       <c r="J3">
         <v>5</v>
       </c>
-      <c r="K3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>99</v>
+      </c>
+      <c r="L3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>18062016</v>
+        <v>19062016</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1609,13 +2027,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AW3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:49">
+    <row r="1" spans="1:56">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1623,164 +2041,185 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:49">
+    <row r="2" spans="1:56">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="M2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="N2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="O2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="Q2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="S2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="T2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="U2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="V2" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="W2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="X2" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="Y2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Z2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="AA2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AB2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="AC2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="AD2" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="AF2" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="AG2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AH2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="AI2" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AJ2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="AK2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AL2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="AM2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="AN2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AO2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AP2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AQ2" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AR2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AS2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AT2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AU2" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AV2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="AW2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:49">
+        <v>145</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>16062016</v>
@@ -1789,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1916,6 +2355,194 @@
       </c>
       <c r="AV3">
         <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>99</v>
+      </c>
+      <c r="AX3">
+        <v>99</v>
+      </c>
+      <c r="AY3">
+        <v>99</v>
+      </c>
+      <c r="AZ3">
+        <v>99</v>
+      </c>
+      <c r="BA3">
+        <v>99</v>
+      </c>
+      <c r="BB3">
+        <v>99</v>
+      </c>
+      <c r="BC3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>11072016</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>9</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>9</v>
+      </c>
+      <c r="U4">
+        <v>9</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <v>9</v>
+      </c>
+      <c r="X4">
+        <v>9</v>
+      </c>
+      <c r="Y4">
+        <v>9</v>
+      </c>
+      <c r="Z4">
+        <v>9</v>
+      </c>
+      <c r="AA4">
+        <v>9</v>
+      </c>
+      <c r="AB4">
+        <v>9</v>
+      </c>
+      <c r="AC4">
+        <v>9</v>
+      </c>
+      <c r="AD4">
+        <v>9</v>
+      </c>
+      <c r="AE4">
+        <v>9</v>
+      </c>
+      <c r="AF4">
+        <v>9</v>
+      </c>
+      <c r="AG4">
+        <v>9</v>
+      </c>
+      <c r="AH4">
+        <v>9</v>
+      </c>
+      <c r="AI4">
+        <v>9</v>
+      </c>
+      <c r="AJ4">
+        <v>9</v>
+      </c>
+      <c r="AK4">
+        <v>9</v>
+      </c>
+      <c r="AL4">
+        <v>9</v>
+      </c>
+      <c r="AM4">
+        <v>9</v>
+      </c>
+      <c r="AN4">
+        <v>9</v>
+      </c>
+      <c r="AO4">
+        <v>9</v>
+      </c>
+      <c r="AP4">
+        <v>9</v>
+      </c>
+      <c r="AQ4">
+        <v>9</v>
+      </c>
+      <c r="AR4">
+        <v>9</v>
+      </c>
+      <c r="AS4">
+        <v>9</v>
+      </c>
+      <c r="AT4">
+        <v>9</v>
+      </c>
+      <c r="AU4">
+        <v>9</v>
+      </c>
+      <c r="AV4">
+        <v>9</v>
+      </c>
+      <c r="AW4">
+        <v>2</v>
+      </c>
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <v>3</v>
+      </c>
+      <c r="AZ4">
+        <v>2</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <v>13</v>
+      </c>
+      <c r="BC4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1944,28 +2571,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1973,7 +2600,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -1994,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2002,7 +2629,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2020,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2028,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C5">
         <v>2</v>

--- a/doc/build/html/_static/pmhc-upload.xlsx
+++ b/doc/build/html/_static/pmhc-upload.xlsx
@@ -2330,10 +2330,10 @@
         <v>2</v>
       </c>
       <c r="AN3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AO3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -2345,16 +2345,16 @@
         <v>2</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AT3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AU3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW3">
         <v>99</v>

--- a/doc/build/html/_static/pmhc-upload.xlsx
+++ b/doc/build/html/_static/pmhc-upload.xlsx
@@ -930,7 +930,7 @@
         <v>1201</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -965,7 +965,7 @@
         <v>1201</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">

--- a/doc/build/html/_static/pmhc-upload.xlsx
+++ b/doc/build/html/_static/pmhc-upload.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32120" windowHeight="16060" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,17 @@
     <sheet name="SDQ" sheetId="6" r:id="rId6"/>
     <sheet name="Practitioners" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="167">
   <si>
     <t>Version</t>
   </si>
@@ -526,11 +531,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -553,13 +581,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -851,12 +888,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -1002,16 +1039,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" t="s">
@@ -1432,16 +1474,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -1609,16 +1658,34 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
@@ -1831,10 +1898,10 @@
         <v>46</v>
       </c>
       <c r="D5">
-        <v>18062016</v>
+        <v>20052016</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>9</v>
@@ -1867,13 +1934,13 @@
         <v>9</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="S5">
         <v>2</v>
@@ -1885,18 +1952,89 @@
         <v>69</v>
       </c>
     </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>18062016</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>99</v>
+      </c>
+      <c r="U6" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -2022,16 +2160,41 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="48" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="10" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:56">
       <c r="A1" t="s">
@@ -2330,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="AN3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -2345,16 +2508,16 @@
         <v>2</v>
       </c>
       <c r="AS3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW3">
         <v>99</v>
@@ -2547,16 +2710,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="6" max="7" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -2606,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>1975</v>
@@ -2634,6 +2809,9 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
         <v>1977</v>
       </c>
@@ -2672,8 +2850,16 @@
       <c r="G5">
         <v>4</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/build/html/_static/pmhc-upload.xlsx
+++ b/doc/build/html/_static/pmhc-upload.xlsx
@@ -2723,7 +2723,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2781,7 +2781,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1975</v>

--- a/doc/build/html/_static/pmhc-upload.xlsx
+++ b/doc/build/html/_static/pmhc-upload.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32120" windowHeight="16060" activeTab="6"/>
+    <workbookView xWindow="540" yWindow="2160" windowWidth="32120" windowHeight="16060" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Clients" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="K5" sheetId="5" r:id="rId5"/>
     <sheet name="SDQ" sheetId="6" r:id="rId6"/>
     <sheet name="Practitioners" sheetId="7" r:id="rId7"/>
+    <sheet name="Organisations" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="177">
   <si>
     <t>Version</t>
   </si>
@@ -526,6 +527,36 @@
   </si>
   <si>
     <t>P03</t>
+  </si>
+  <si>
+    <t>organisation_key</t>
+  </si>
+  <si>
+    <t>organisation_name</t>
+  </si>
+  <si>
+    <t>organisation_legal_name</t>
+  </si>
+  <si>
+    <t>organisation_abn</t>
+  </si>
+  <si>
+    <t>organisation_type</t>
+  </si>
+  <si>
+    <t>organisation_state</t>
+  </si>
+  <si>
+    <t>organisation_status</t>
+  </si>
+  <si>
+    <t>organisation_tags</t>
+  </si>
+  <si>
+    <t>NFP01</t>
+  </si>
+  <si>
+    <t>Test Provider Organisation NFP1</t>
   </si>
 </sst>
 </file>
@@ -894,6 +925,9 @@
     <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -2722,7 +2756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2862,4 +2896,91 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3">
+        <v>42072953425</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>